--- a/rms.xlsx
+++ b/rms.xlsx
@@ -8,12 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/22254ca56b479b7e/Coding/MuscleApp/gymAPP/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="19" documentId="11_F25DC773A252ABDACC104897891B42CA5ADE58FB" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F1F750A1-83AE-48E4-B8FC-2AEBC4078B54}"/>
+  <xr:revisionPtr revIDLastSave="22" documentId="13_ncr:1_{4DE4E8B2-3406-4BA9-B194-755D97C99656}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CA008C99-9716-4505-9E8B-8F9EC2143AB4}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="A" sheetId="1" r:id="rId1"/>
+    <sheet name="B" sheetId="2" r:id="rId2"/>
+    <sheet name="C" sheetId="3" r:id="rId3"/>
+    <sheet name="D" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
   <si>
     <t>pecho plano</t>
   </si>
@@ -46,6 +49,57 @@
   </si>
   <si>
     <t>extension triceps</t>
+  </si>
+  <si>
+    <t>curl de quadriceps</t>
+  </si>
+  <si>
+    <t>silla de aductores</t>
+  </si>
+  <si>
+    <t>sentadillas</t>
+  </si>
+  <si>
+    <t>subidas laterales al cajon</t>
+  </si>
+  <si>
+    <t>sentadillas bulgaras</t>
+  </si>
+  <si>
+    <t>pantorillas</t>
+  </si>
+  <si>
+    <t>press de hombros</t>
+  </si>
+  <si>
+    <t>vuelo frontal</t>
+  </si>
+  <si>
+    <t>vuelo lateral</t>
+  </si>
+  <si>
+    <t>vuelo posterior</t>
+  </si>
+  <si>
+    <t>biceps inclinado</t>
+  </si>
+  <si>
+    <t>biceps martillo</t>
+  </si>
+  <si>
+    <t>curl de femorales</t>
+  </si>
+  <si>
+    <t>sillon de abeductores</t>
+  </si>
+  <si>
+    <t>peso muerto</t>
+  </si>
+  <si>
+    <t>patadas laterales</t>
+  </si>
+  <si>
+    <t>hip thrust</t>
   </si>
 </sst>
 </file>
@@ -98,10 +152,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -369,8 +419,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -455,4 +505,247 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE273B5E-6323-4F3D-BB5B-EC3B333AE57F}">
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1">
+        <v>0</v>
+      </c>
+      <c r="C1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1D995AA-BE8E-46FC-831E-D4E6AEC7A8E6}">
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1">
+        <v>72.5</v>
+      </c>
+      <c r="C1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2">
+        <v>9</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3">
+        <v>9</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4">
+        <v>9</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5">
+        <v>9</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6">
+        <v>9</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{826959D5-3957-42A9-902F-4F65E32983C5}">
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1">
+        <v>5</v>
+      </c>
+      <c r="C1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2">
+        <v>10</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3">
+        <v>130</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5">
+        <v>80</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6">
+        <v>10</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>